--- a/public/template/template_product_kontrak.xlsx
+++ b/public/template/template_product_kontrak.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ampps\www\consys\public\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>kode_master_item</t>
   </si>
@@ -39,6 +39,15 @@
   </si>
   <si>
     <t>no_kontrak</t>
+  </si>
+  <si>
+    <t>jakarta</t>
+  </si>
+  <si>
+    <t>K.TEL.00002/HK.810/PSC-a1030000/20182</t>
+  </si>
+  <si>
+    <t>kodemasteritem</t>
   </si>
 </sst>
 </file>
@@ -357,10 +366,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -369,7 +378,7 @@
     <col min="2" max="2" width="25.28515625" customWidth="1"/>
     <col min="3" max="3" width="15.7109375" customWidth="1"/>
     <col min="4" max="4" width="14.7109375" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" customWidth="1"/>
+    <col min="5" max="5" width="37.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -389,6 +398,23 @@
         <v>4</v>
       </c>
     </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>123</v>
+      </c>
+      <c r="D2">
+        <v>123</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/public/template/template_product_kontrak.xlsx
+++ b/public/template/template_product_kontrak.xlsx
@@ -24,14 +24,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>kode_master_item</t>
   </si>
   <si>
-    <t>price_coverage</t>
-  </si>
-  <si>
     <t>harga_barang</t>
   </si>
   <si>
@@ -41,13 +38,22 @@
     <t>no_kontrak</t>
   </si>
   <si>
-    <t>jakarta</t>
-  </si>
-  <si>
     <t>K.TEL.00002/HK.810/PSC-a1030000/20182</t>
   </si>
   <si>
     <t>kodemasteritem</t>
+  </si>
+  <si>
+    <t>coverage</t>
+  </si>
+  <si>
+    <t>group_coverage</t>
+  </si>
+  <si>
+    <t>provinsi</t>
+  </si>
+  <si>
+    <t>jawa barat</t>
   </si>
 </sst>
 </file>
@@ -366,53 +372,59 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.140625" customWidth="1"/>
-    <col min="2" max="2" width="25.28515625" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" customWidth="1"/>
-    <col min="5" max="5" width="37.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="20.140625" customWidth="1"/>
+    <col min="3" max="3" width="25.28515625" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" customWidth="1"/>
+    <col min="6" max="6" width="37.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2">
-        <v>123</v>
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
       </c>
       <c r="D2">
         <v>123</v>
       </c>
-      <c r="E2" t="s">
-        <v>6</v>
+      <c r="E2">
+        <v>123</v>
+      </c>
+      <c r="F2" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
